--- a/src/analysis_examples/er4000/results_er4000/animal_02/cosinor_animal_02_tmp.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_02/cosinor_animal_02_tmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.12000000000033</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.006720284730993509</v>
       </c>
       <c r="H2" t="n">
-        <v>2.424067739356237e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.01289263257744558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9714814031653441</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>0.9778189170703264</v>
+        <v>0.4569998529823742</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.855285765326478, 1.1003520688141748]</t>
+          <t>[0.09080754930302248, 0.823192156661726]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.01489221172875865</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.01489221172875865</v>
       </c>
       <c r="O2" t="n">
-        <v>1.729605565039425</v>
+        <v>0.4465527095192696</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5912371198362711, 1.8679740102425795]</t>
+          <t>[-0.4276842851733855, 1.3207897042119248]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.3138189368453146</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.3138189368453146</v>
       </c>
       <c r="S2" t="n">
-        <v>36.96032472734665</v>
+        <v>36.99966724148818</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[36.88317927300103, 37.03747018169226]</t>
+          <t>[36.80194181569715, 37.19739266727922]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.4803603603606</v>
+        <v>20.43643643643644</v>
       </c>
       <c r="X2" t="n">
-        <v>16.94918918918943</v>
+        <v>17.37537537537538</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.01153153153178</v>
+        <v>23.4974974974975</v>
       </c>
     </row>
     <row r="3">
@@ -645,14 +647,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.88000000000029</v>
+        <v>23.83000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.424067739356237e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9990912181712115</v>
-      </c>
+        <v>1.366428338000193e-15</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>1.173999915225551</v>
+        <v>0.7297580998057747</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.1160099484808264, 1.231989881970275]</t>
+          <t>[0.6178052125521454, 0.841710987059404]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.377394977249579</v>
+        <v>2.647868883205811</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 1.427710775505271]</t>
+          <t>[2.4843425388748113, 2.811395227536811]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>36.95185487697282</v>
+        <v>36.48494810214889</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[36.91675737567002, 36.98695237827563]</t>
+          <t>[36.426446729356115, 36.54344947494167]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.64504504504528</v>
+        <v>13.7875275275277</v>
       </c>
       <c r="X3" t="n">
-        <v>18.45381381381404</v>
+        <v>13.16732732732749</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.83627627627651</v>
+        <v>14.4077277277279</v>
       </c>
     </row>
     <row r="4">
@@ -724,18 +724,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.70000000000027</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -744,46 +744,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H4" t="n">
-        <v>2.424067739356237e-16</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.782546854567357e-08</v>
-      </c>
+        <v>1.366428338000193e-15</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0.8969235798734836</v>
+        <v>0.4590327514468484</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[0.8281984262041071, 0.9656487335428601]</t>
+          <t>[0.32195920322941873, 0.5961062996642781]</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.238968927452788e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.477937854905576e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.06289474781961513</v>
+        <v>2.308237244979888</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[-0.1509473947670772, 0.02515789912784694]</t>
+          <t>[2.0189214050096553, 2.59755308495012]</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>0.1611620150769961</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1611620150769961</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>36.35475840013818</v>
+        <v>36.39175396337924</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[36.309543342923455, 36.39997345735291]</t>
+          <t>[36.32232320519124, 36.46118472156725]</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -793,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2372372372372382</v>
+        <v>15.06298298298316</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.09489489489489911</v>
+        <v>13.96662662662679</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5693693693693755</v>
+        <v>16.15933933933954</v>
       </c>
     </row>
     <row r="5">
@@ -811,46 +809,46 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4_hypo_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.63000000000025</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.976915711831566e-10</v>
       </c>
       <c r="H5" t="n">
-        <v>2.424067739356237e-16</v>
+        <v>5.12845052921855e-09</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1.047943166002849</v>
+        <v>0.8382728688816918</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[0.9424747669395579, 1.1534115650661398]</t>
+          <t>[0.5135479185816081, 1.1629978191817756]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>7.447686436456991e-07</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>9.930248581942653e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.8176317216550011</v>
+        <v>2.056658253701426</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[-0.9182633181663862, -0.717000125143616]</t>
+          <t>[1.6667108172198093, 2.446605690183042]</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -860,11 +858,11 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>36.21364437925631</v>
+        <v>37.23302678146263</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[36.15993050292147, 36.26735825559115]</t>
+          <t>[37.0612453298452, 37.404808233080054]</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -874,94 +872,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3.074974974975007</v>
+        <v>16.04996996997017</v>
       </c>
       <c r="X5" t="n">
-        <v>2.696516516516543</v>
+        <v>14.56916916916935</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.45343343343347</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>23.59000000000025</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.424067739356237e-16</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.8136110583387755</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[0.7115752763374559, 0.915646840340095]</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-1.069210712933463</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[-1.1950002085726945, -0.9434212172942322]</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>36.38786250263466</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>[36.33369620828367, 36.44202879698565]</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.014314314314358</v>
-      </c>
-      <c r="X6" t="n">
-        <v>3.54204204204208</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4.486586586586636</v>
+        <v>17.53077077077099</v>
       </c>
     </row>
   </sheetData>
